--- a/data/trans_orig/IP09C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP09C-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42D7C7A2-5715-49E8-938E-058919ABDB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C496BE9C-6253-4521-82BC-5EFAE6F6FA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{119EC1DB-3118-4E18-9474-B49DB96077E4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8425310C-90E2-4F0C-AD3B-5F8C238BD721}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="710">
   <si>
     <t>Menores según motivo de salud que produjo dicha enfermedad, dolencia.. en 2007 (Tasa respuesta: 9,08%)</t>
   </si>
@@ -76,10 +76,10 @@
     <t>26,99%</t>
   </si>
   <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -94,10 +94,10 @@
     <t>13,94%</t>
   </si>
   <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
   </si>
   <si>
     <t>Problemas auditivos/oidos</t>
@@ -127,22 +127,22 @@
     <t>17,65%</t>
   </si>
   <si>
-    <t>45,24%</t>
+    <t>45,09%</t>
   </si>
   <si>
     <t>21,92%</t>
   </si>
   <si>
-    <t>55,43%</t>
+    <t>57,36%</t>
   </si>
   <si>
     <t>19,71%</t>
   </si>
   <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
   </si>
   <si>
     <t>Gastroenteritis/Gases/Digestivo</t>
@@ -154,2008 +154,2020 @@
     <t>27,08%</t>
   </si>
   <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>Esguince/Luxacion/Rotura</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>Alergia/Asma</t>
+  </si>
+  <si>
+    <t>Fiebre</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según motivo de salud que produjo dicha enfermedad, dolencia.. en 2012 (Tasa respuesta: 11,91%)</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>Menores según motivo de salud que produjo dicha enfermedad, dolencia.. en 2016 (Tasa respuesta: 6,07%)</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
     <t>8,74%</t>
   </si>
   <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>Esguince/Luxacion/Rotura</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>Alergia/Asma</t>
-  </si>
-  <si>
-    <t>Fiebre</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
+    <t>9,78%</t>
   </si>
   <si>
     <t>20,99%</t>
   </si>
   <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según motivo de salud que produjo dicha enfermedad, dolencia.. en 2012 (Tasa respuesta: 11,91%)</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
   </si>
   <si>
     <t>4,78%</t>
   </si>
   <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>Menores según motivo de salud que produjo dicha enfermedad, dolencia.. en 2015 (Tasa respuesta: 6,07%)</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
   </si>
 </sst>
 </file>
@@ -2567,7 +2579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC973ED9-7A67-4856-88BC-E8B6AFF7A99A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334D17FC-A38A-4A3B-B95D-A757289D507F}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3746,10 +3758,10 @@
         <v>84</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +3776,13 @@
         <v>19371</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H25" s="7">
         <v>20</v>
@@ -3779,13 +3791,13 @@
         <v>12857</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M25" s="7">
         <v>49</v>
@@ -3794,13 +3806,13 @@
         <v>32227</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +3827,13 @@
         <v>8846</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -3830,13 +3842,13 @@
         <v>2984</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M26" s="7">
         <v>17</v>
@@ -3845,13 +3857,13 @@
         <v>11830</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3866,13 +3878,13 @@
         <v>8381</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H27" s="7">
         <v>6</v>
@@ -3881,13 +3893,13 @@
         <v>4141</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M27" s="7">
         <v>19</v>
@@ -3896,13 +3908,13 @@
         <v>12521</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3917,13 +3929,13 @@
         <v>4021</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -3932,13 +3944,13 @@
         <v>616</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -3947,10 +3959,10 @@
         <v>4638</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>120</v>
@@ -4411,10 +4423,10 @@
         <v>143</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4441,13 @@
         <v>8119</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H38" s="7">
         <v>7</v>
@@ -4444,13 +4456,13 @@
         <v>4468</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M38" s="7">
         <v>19</v>
@@ -4459,13 +4471,13 @@
         <v>12587</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4492,13 @@
         <v>1439</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H39" s="7">
         <v>6</v>
@@ -4495,13 +4507,13 @@
         <v>3853</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M39" s="7">
         <v>8</v>
@@ -4510,13 +4522,13 @@
         <v>5292</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,13 +4543,13 @@
         <v>2715</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -4546,13 +4558,13 @@
         <v>986</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M40" s="7">
         <v>5</v>
@@ -4561,13 +4573,13 @@
         <v>3702</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,13 +4594,13 @@
         <v>2146</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H41" s="7">
         <v>6</v>
@@ -4597,13 +4609,13 @@
         <v>4235</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M41" s="7">
         <v>9</v>
@@ -4612,13 +4624,13 @@
         <v>6381</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,13 +4698,13 @@
         <v>5989</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H43" s="7">
         <v>2</v>
@@ -4701,13 +4713,13 @@
         <v>1384</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M43" s="7">
         <v>11</v>
@@ -4716,13 +4728,13 @@
         <v>7373</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,7 +4755,7 @@
         <v>15</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -4794,7 +4806,7 @@
         <v>15</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -4845,7 +4857,7 @@
         <v>15</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -4896,7 +4908,7 @@
         <v>15</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -4947,7 +4959,7 @@
         <v>15</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -5163,10 +5175,10 @@
         <v>219</v>
       </c>
       <c r="K52" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M52" s="7">
         <v>30</v>
@@ -5175,13 +5187,13 @@
         <v>20576</v>
       </c>
       <c r="O52" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P52" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="P52" s="7" t="s">
+      <c r="Q52" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5208,13 @@
         <v>11096</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="G53" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H53" s="7">
         <v>7</v>
@@ -5211,7 +5223,7 @@
         <v>5127</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>112</v>
+        <v>227</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>228</v>
@@ -5268,7 +5280,7 @@
         <v>237</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>238</v>
+        <v>95</v>
       </c>
       <c r="M54" s="7">
         <v>16</v>
@@ -5277,13 +5289,13 @@
         <v>11019</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P54" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,7 +5351,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -5358,7 +5370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB0FA41-E488-4C9D-9E32-E21A5E2FDFBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B983E61-80E7-4EBB-89F5-40FC54694EE8}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5375,7 +5387,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5482,13 +5494,13 @@
         <v>2162</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5497,13 +5509,13 @@
         <v>1331</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -5512,13 +5524,13 @@
         <v>3494</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,28 +5545,28 @@
         <v>623</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -5563,13 +5575,13 @@
         <v>623</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5590,37 +5602,37 @@
         <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5641,37 +5653,37 @@
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5692,7 +5704,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -5701,7 +5713,7 @@
         <v>712</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>14</v>
@@ -5743,37 +5755,37 @@
         <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,37 +5806,37 @@
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,10 +5854,10 @@
         <v>261</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -5854,13 +5866,13 @@
         <v>1322</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -5869,13 +5881,13 @@
         <v>3285</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5890,13 +5902,13 @@
         <v>2047</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -5905,13 +5917,13 @@
         <v>3220</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -5920,13 +5932,13 @@
         <v>5267</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5941,13 +5953,13 @@
         <v>1762</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>279</v>
+        <v>209</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5962,7 +5974,7 @@
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -5971,13 +5983,13 @@
         <v>1762</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,13 +6004,13 @@
         <v>1705</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -6007,13 +6019,13 @@
         <v>3474</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -6022,13 +6034,13 @@
         <v>5179</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6043,13 +6055,13 @@
         <v>641</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -6058,13 +6070,13 @@
         <v>1950</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M15" s="7">
         <v>4</v>
@@ -6073,13 +6085,13 @@
         <v>2591</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>295</v>
+        <v>222</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6147,13 +6159,13 @@
         <v>10596</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -6162,13 +6174,13 @@
         <v>5890</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -6177,13 +6189,13 @@
         <v>16486</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>243</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6198,13 +6210,13 @@
         <v>654</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -6213,13 +6225,13 @@
         <v>734</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -6228,13 +6240,13 @@
         <v>1388</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6255,7 +6267,7 @@
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -6264,13 +6276,13 @@
         <v>480</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -6279,13 +6291,13 @@
         <v>480</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6300,13 +6312,13 @@
         <v>689</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6330,13 +6342,13 @@
         <v>689</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>185</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6357,7 +6369,7 @@
         <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6387,7 +6399,7 @@
         <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6408,7 +6420,7 @@
         <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -6417,13 +6429,13 @@
         <v>680</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -6432,13 +6444,13 @@
         <v>680</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6453,13 +6465,13 @@
         <v>3433</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -6468,13 +6480,13 @@
         <v>3556</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M23" s="7">
         <v>10</v>
@@ -6483,13 +6495,13 @@
         <v>6988</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6504,13 +6516,13 @@
         <v>3733</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -6525,7 +6537,7 @@
         <v>14</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>233</v>
+        <v>334</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -6534,13 +6546,13 @@
         <v>5000</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="P24" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="Q24" s="7" t="s">
-        <v>337</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6555,13 +6567,13 @@
         <v>28671</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="H25" s="7">
         <v>42</v>
@@ -6570,13 +6582,13 @@
         <v>29307</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="M25" s="7">
         <v>83</v>
@@ -6585,13 +6597,13 @@
         <v>57978</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6606,13 +6618,13 @@
         <v>3561</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -6621,13 +6633,13 @@
         <v>2017</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>352</v>
+        <v>132</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -6636,13 +6648,13 @@
         <v>5579</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6657,13 +6669,13 @@
         <v>6231</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>356</v>
+        <v>85</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H27" s="7">
         <v>5</v>
@@ -6672,13 +6684,13 @@
         <v>3624</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>361</v>
+        <v>295</v>
       </c>
       <c r="M27" s="7">
         <v>14</v>
@@ -6687,13 +6699,13 @@
         <v>9855</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6708,13 +6720,13 @@
         <v>9467</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -6723,13 +6735,13 @@
         <v>4018</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>370</v>
+        <v>16</v>
       </c>
       <c r="M28" s="7">
         <v>19</v>
@@ -6738,13 +6750,13 @@
         <v>13485</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>105</v>
+        <v>367</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6812,13 +6824,13 @@
         <v>2039</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>110</v>
+        <v>370</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -6827,13 +6839,13 @@
         <v>790</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>376</v>
+        <v>97</v>
       </c>
       <c r="M30" s="7">
         <v>4</v>
@@ -6842,13 +6854,13 @@
         <v>2830</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6869,7 +6881,7 @@
         <v>15</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -6899,7 +6911,7 @@
         <v>15</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6920,7 +6932,7 @@
         <v>15</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6950,7 +6962,7 @@
         <v>15</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6971,7 +6983,7 @@
         <v>15</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -6986,7 +6998,7 @@
         <v>14</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -6995,13 +7007,13 @@
         <v>710</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7022,7 +7034,7 @@
         <v>15</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -7052,7 +7064,7 @@
         <v>15</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7073,7 +7085,7 @@
         <v>15</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -7103,7 +7115,7 @@
         <v>15</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7118,13 +7130,13 @@
         <v>1963</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>138</v>
+        <v>381</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -7133,13 +7145,13 @@
         <v>1422</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M36" s="7">
         <v>5</v>
@@ -7148,13 +7160,13 @@
         <v>3385</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>275</v>
+        <v>387</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7169,13 +7181,13 @@
         <v>668</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>163</v>
+        <v>388</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H37" s="7">
         <v>5</v>
@@ -7184,13 +7196,13 @@
         <v>3375</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="M37" s="7">
         <v>6</v>
@@ -7199,13 +7211,13 @@
         <v>4043</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7220,13 +7232,13 @@
         <v>5863</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="H38" s="7">
         <v>6</v>
@@ -7235,13 +7247,13 @@
         <v>3819</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="M38" s="7">
         <v>14</v>
@@ -7250,13 +7262,13 @@
         <v>9682</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7271,13 +7283,13 @@
         <v>4640</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="H39" s="7">
         <v>2</v>
@@ -7286,13 +7298,13 @@
         <v>1331</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>208</v>
+        <v>407</v>
       </c>
       <c r="M39" s="7">
         <v>8</v>
@@ -7301,13 +7313,13 @@
         <v>5971</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7322,13 +7334,13 @@
         <v>2355</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -7352,13 +7364,13 @@
         <v>2355</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7373,13 +7385,13 @@
         <v>1223</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H41" s="7">
         <v>4</v>
@@ -7388,13 +7400,13 @@
         <v>2603</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>422</v>
+        <v>323</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="M41" s="7">
         <v>6</v>
@@ -7403,13 +7415,13 @@
         <v>3826</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7477,13 +7489,13 @@
         <v>14798</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>361</v>
+        <v>424</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>427</v>
+        <v>302</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H43" s="7">
         <v>12</v>
@@ -7492,13 +7504,13 @@
         <v>8012</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M43" s="7">
         <v>33</v>
@@ -7507,13 +7519,13 @@
         <v>22810</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>433</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7528,13 +7540,13 @@
         <v>1277</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -7543,13 +7555,13 @@
         <v>734</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="M44" s="7">
         <v>3</v>
@@ -7558,13 +7570,13 @@
         <v>2011</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7585,7 +7597,7 @@
         <v>15</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="H45" s="7">
         <v>1</v>
@@ -7594,13 +7606,13 @@
         <v>480</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="M45" s="7">
         <v>1</v>
@@ -7609,13 +7621,13 @@
         <v>480</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7630,13 +7642,13 @@
         <v>689</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -7645,13 +7657,13 @@
         <v>710</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="M46" s="7">
         <v>2</v>
@@ -7660,13 +7672,13 @@
         <v>1398</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7687,7 +7699,7 @@
         <v>15</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
@@ -7696,13 +7708,13 @@
         <v>712</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="M47" s="7">
         <v>1</v>
@@ -7711,13 +7723,13 @@
         <v>712</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7738,7 +7750,7 @@
         <v>15</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="H48" s="7">
         <v>1</v>
@@ -7747,13 +7759,13 @@
         <v>680</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="M48" s="7">
         <v>1</v>
@@ -7762,13 +7774,13 @@
         <v>680</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>458</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7783,13 +7795,13 @@
         <v>5396</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>459</v>
+        <v>426</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="H49" s="7">
         <v>7</v>
@@ -7798,13 +7810,13 @@
         <v>4978</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>182</v>
+        <v>454</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="M49" s="7">
         <v>15</v>
@@ -7813,13 +7825,13 @@
         <v>10374</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7834,13 +7846,13 @@
         <v>6365</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
       <c r="H50" s="7">
         <v>9</v>
@@ -7849,13 +7861,13 @@
         <v>5963</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="M50" s="7">
         <v>18</v>
@@ -7864,13 +7876,13 @@
         <v>12328</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>474</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7885,13 +7897,13 @@
         <v>36581</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="H51" s="7">
         <v>53</v>
@@ -7900,13 +7912,13 @@
         <v>36347</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="M51" s="7">
         <v>105</v>
@@ -7915,13 +7927,13 @@
         <v>72927</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -7936,13 +7948,13 @@
         <v>9963</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="H52" s="7">
         <v>5</v>
@@ -7951,13 +7963,13 @@
         <v>3348</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="M52" s="7">
         <v>18</v>
@@ -7966,13 +7978,13 @@
         <v>13312</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>353</v>
+        <v>483</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -7987,13 +7999,13 @@
         <v>10291</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="H53" s="7">
         <v>10</v>
@@ -8002,13 +8014,13 @@
         <v>7098</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="M53" s="7">
         <v>24</v>
@@ -8017,13 +8029,13 @@
         <v>17389</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>462</v>
+        <v>492</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8038,13 +8050,13 @@
         <v>11331</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="H54" s="7">
         <v>13</v>
@@ -8053,13 +8065,13 @@
         <v>8571</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>410</v>
+        <v>374</v>
       </c>
       <c r="M54" s="7">
         <v>29</v>
@@ -8068,13 +8080,13 @@
         <v>19902</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>366</v>
+        <v>113</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8130,7 +8142,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -8149,7 +8161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5AC7DCE-E065-42EC-A6F7-8116EC82C9C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5F5875-3C8D-432E-8DE7-3832C584742A}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8166,7 +8178,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8279,7 +8291,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -8288,13 +8300,13 @@
         <v>836</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -8303,13 +8315,13 @@
         <v>836</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8330,22 +8342,22 @@
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -8381,22 +8393,22 @@
         <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -8432,22 +8444,22 @@
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -8483,22 +8495,22 @@
         <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8534,22 +8546,22 @@
         <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -8579,13 +8591,13 @@
         <v>644</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -8594,13 +8606,13 @@
         <v>544</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -8609,13 +8621,13 @@
         <v>1188</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8636,22 +8648,22 @@
         <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -8681,13 +8693,13 @@
         <v>1338</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -8696,13 +8708,13 @@
         <v>1242</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -8711,13 +8723,13 @@
         <v>2579</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>521</v>
+        <v>272</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8738,7 +8750,7 @@
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -8747,13 +8759,13 @@
         <v>564</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -8762,13 +8774,13 @@
         <v>564</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8783,13 +8795,13 @@
         <v>791</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>134</v>
+        <v>522</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8804,7 +8816,7 @@
         <v>15</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -8813,13 +8825,13 @@
         <v>791</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>529</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8840,7 +8852,7 @@
         <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -8855,7 +8867,7 @@
         <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -8864,13 +8876,13 @@
         <v>699</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8938,13 +8950,13 @@
         <v>5510</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -8953,13 +8965,13 @@
         <v>2718</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -8968,13 +8980,13 @@
         <v>8228</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>539</v>
+        <v>239</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8989,13 +9001,13 @@
         <v>1201</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>163</v>
+        <v>388</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -9004,13 +9016,13 @@
         <v>1306</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -9019,13 +9031,13 @@
         <v>2507</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>299</v>
+        <v>539</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9040,13 +9052,13 @@
         <v>1299</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -9055,13 +9067,13 @@
         <v>641</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -9070,13 +9082,13 @@
         <v>1940</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>439</v>
+        <v>544</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>12</v>
+        <v>546</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9097,7 +9109,7 @@
         <v>15</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>551</v>
+        <v>237</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -9127,7 +9139,7 @@
         <v>15</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9148,7 +9160,7 @@
         <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>551</v>
+        <v>237</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -9157,13 +9169,13 @@
         <v>564</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -9172,13 +9184,13 @@
         <v>564</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9193,13 +9205,13 @@
         <v>790</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>174</v>
+        <v>391</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -9223,13 +9235,13 @@
         <v>790</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>558</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9244,13 +9256,13 @@
         <v>917</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -9259,13 +9271,13 @@
         <v>1181</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -9274,13 +9286,13 @@
         <v>2099</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9295,13 +9307,13 @@
         <v>2295</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>433</v>
+        <v>561</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -9310,13 +9322,13 @@
         <v>1388</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -9325,13 +9337,13 @@
         <v>3683</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>570</v>
+        <v>548</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9346,13 +9358,13 @@
         <v>11389</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
@@ -9361,13 +9373,13 @@
         <v>11251</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="M25" s="7">
         <v>34</v>
@@ -9376,13 +9388,13 @@
         <v>22640</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9397,13 +9409,13 @@
         <v>3710</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>204</v>
+        <v>575</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -9412,13 +9424,13 @@
         <v>4076</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -9427,13 +9439,13 @@
         <v>7787</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>586</v>
+        <v>486</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9448,13 +9460,13 @@
         <v>5031</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>235</v>
+        <v>582</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -9463,13 +9475,13 @@
         <v>4687</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="M27" s="7">
         <v>14</v>
@@ -9478,13 +9490,13 @@
         <v>9718</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>409</v>
+        <v>236</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9499,13 +9511,13 @@
         <v>1598</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>555</v>
+        <v>590</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>235</v>
+        <v>591</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -9514,13 +9526,13 @@
         <v>670</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -9529,13 +9541,13 @@
         <v>2268</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>597</v>
+        <v>309</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>598</v>
+        <v>318</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>177</v>
+        <v>594</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9603,13 +9615,13 @@
         <v>1336</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -9618,13 +9630,13 @@
         <v>1294</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="M30" s="7">
         <v>4</v>
@@ -9633,13 +9645,13 @@
         <v>2630</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>163</v>
+        <v>600</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9660,7 +9672,7 @@
         <v>15</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -9675,7 +9687,7 @@
         <v>15</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -9705,13 +9717,13 @@
         <v>739</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>606</v>
+        <v>12</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -9726,7 +9738,7 @@
         <v>15</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -9735,13 +9747,13 @@
         <v>739</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9762,7 +9774,7 @@
         <v>15</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -9777,7 +9789,7 @@
         <v>15</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -9813,7 +9825,7 @@
         <v>15</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -9822,13 +9834,13 @@
         <v>724</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>540</v>
+        <v>605</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -9837,13 +9849,13 @@
         <v>724</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>551</v>
+        <v>237</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9864,7 +9876,7 @@
         <v>15</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -9879,7 +9891,7 @@
         <v>15</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -9915,7 +9927,7 @@
         <v>15</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -9930,7 +9942,7 @@
         <v>15</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -9960,13 +9972,13 @@
         <v>2137</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>611</v>
+        <v>147</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -9975,13 +9987,13 @@
         <v>1905</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="M37" s="7">
         <v>5</v>
@@ -9990,13 +10002,13 @@
         <v>4041</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>210</v>
+        <v>614</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10011,13 +10023,13 @@
         <v>1318</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H38" s="7">
         <v>7</v>
@@ -10026,13 +10038,13 @@
         <v>4055</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="M38" s="7">
         <v>9</v>
@@ -10041,13 +10053,13 @@
         <v>5373</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10062,13 +10074,13 @@
         <v>737</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>626</v>
+        <v>546</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="H39" s="7">
         <v>1</v>
@@ -10077,13 +10089,13 @@
         <v>605</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="M39" s="7">
         <v>2</v>
@@ -10092,13 +10104,13 @@
         <v>1342</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -10113,13 +10125,13 @@
         <v>1341</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>632</v>
+        <v>327</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="H40" s="7">
         <v>2</v>
@@ -10128,13 +10140,13 @@
         <v>1160</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="M40" s="7">
         <v>4</v>
@@ -10143,13 +10155,13 @@
         <v>2501</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>636</v>
+        <v>466</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>180</v>
+        <v>631</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -10164,13 +10176,13 @@
         <v>1212</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>638</v>
+        <v>254</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -10185,7 +10197,7 @@
         <v>15</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
@@ -10194,13 +10206,13 @@
         <v>1212</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10268,13 +10280,13 @@
         <v>6846</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>489</v>
+        <v>155</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="H43" s="7">
         <v>8</v>
@@ -10283,13 +10295,13 @@
         <v>4848</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>644</v>
+        <v>535</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>33</v>
+        <v>638</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="M43" s="7">
         <v>18</v>
@@ -10298,13 +10310,13 @@
         <v>11694</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>559</v>
+        <v>640</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>77</v>
+        <v>641</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -10319,13 +10331,13 @@
         <v>1201</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
@@ -10334,13 +10346,13 @@
         <v>1306</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>352</v>
+        <v>646</v>
       </c>
       <c r="M44" s="7">
         <v>4</v>
@@ -10349,13 +10361,13 @@
         <v>2507</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>652</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10370,13 +10382,13 @@
         <v>2038</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>473</v>
+        <v>649</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>654</v>
+        <v>580</v>
       </c>
       <c r="H45" s="7">
         <v>1</v>
@@ -10385,13 +10397,13 @@
         <v>641</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>130</v>
+        <v>652</v>
       </c>
       <c r="M45" s="7">
         <v>4</v>
@@ -10400,13 +10412,13 @@
         <v>2679</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -10427,7 +10439,7 @@
         <v>15</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -10442,7 +10454,7 @@
         <v>15</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -10457,7 +10469,7 @@
         <v>15</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -10478,7 +10490,7 @@
         <v>15</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="H47" s="7">
         <v>2</v>
@@ -10487,13 +10499,13 @@
         <v>1288</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>332</v>
+        <v>659</v>
       </c>
       <c r="M47" s="7">
         <v>2</v>
@@ -10502,13 +10514,13 @@
         <v>1288</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>318</v>
+        <v>661</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10523,14 +10535,14 @@
         <v>790</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>663</v>
       </c>
-      <c r="F48" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>664</v>
-      </c>
       <c r="H48" s="7">
         <v>0</v>
       </c>
@@ -10544,7 +10556,7 @@
         <v>15</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="M48" s="7">
         <v>1</v>
@@ -10553,13 +10565,13 @@
         <v>790</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q48" s="7" t="s">
         <v>665</v>
-      </c>
-      <c r="P48" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -10595,7 +10607,7 @@
         <v>669</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>264</v>
+        <v>670</v>
       </c>
       <c r="M49" s="7">
         <v>5</v>
@@ -10604,13 +10616,13 @@
         <v>3287</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>321</v>
+        <v>672</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -10625,13 +10637,13 @@
         <v>4432</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>562</v>
+        <v>18</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="H50" s="7">
         <v>4</v>
@@ -10640,13 +10652,13 @@
         <v>3293</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="M50" s="7">
         <v>10</v>
@@ -10655,13 +10667,13 @@
         <v>7725</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>679</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -10676,13 +10688,13 @@
         <v>14044</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>646</v>
+        <v>682</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>283</v>
+        <v>683</v>
       </c>
       <c r="H51" s="7">
         <v>26</v>
@@ -10691,13 +10703,13 @@
         <v>16548</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="M51" s="7">
         <v>47</v>
@@ -10706,13 +10718,13 @@
         <v>30592</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>532</v>
+        <v>689</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -10727,13 +10739,13 @@
         <v>4447</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="H52" s="7">
         <v>7</v>
@@ -10742,13 +10754,13 @@
         <v>5246</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="M52" s="7">
         <v>13</v>
@@ -10757,13 +10769,13 @@
         <v>9693</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>165</v>
+        <v>695</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>691</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -10778,13 +10790,13 @@
         <v>7163</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="H53" s="7">
         <v>9</v>
@@ -10793,13 +10805,13 @@
         <v>5846</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>696</v>
+        <v>461</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="M53" s="7">
         <v>19</v>
@@ -10808,13 +10820,13 @@
         <v>13010</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>699</v>
+        <v>137</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -10829,13 +10841,13 @@
         <v>2811</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>703</v>
+        <v>101</v>
       </c>
       <c r="H54" s="7">
         <v>2</v>
@@ -10844,13 +10856,13 @@
         <v>1369</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>295</v>
+        <v>706</v>
       </c>
       <c r="M54" s="7">
         <v>6</v>
@@ -10859,13 +10871,13 @@
         <v>4180</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>363</v>
+        <v>707</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>332</v>
+        <v>709</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -10921,7 +10933,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
